--- a/polls/IROS20_Specials.xlsx
+++ b/polls/IROS20_Specials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF5EB82-7B47-4410-B3C0-034BF924D3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FCB50C-FA0D-47C0-87FF-F93EC29AF1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="116">
   <si>
     <t>Genre</t>
   </si>
@@ -329,12 +329,69 @@
   <si>
     <t xml:space="preserve">Ashish D. Deshpande is a faculty member in the Mechanical Engineering Department at the University of Texas since 2011. Dr. Deshpande received his Ph.D. degree in Mechanical Engineering from the University of Michigan, Ann Arbor, in 2007. He then completed a post-doctoral fellowship at the University of Washington in Seattle. At The University of Texas at Austin, Dr. Deshpande directs the ReNeu Robotics Lab. His work focuses on the study of human system and design of robotic systems toward the goals accelerating recovery after a neurological injury (e.g. stroke and spinal cord injury), improving the quality of lives of those living disabilities (e.g. amputation) and enhancing lives and productivity of workers, soldiers and astronauts. Specifically, his group has designed two novel exoskeletons for delivering engaging and subject-specific training for neuro-recovery of upper-body movements after stroke and spinal cord injury. Currently his group is collaborating with top clinicians around the world to combine technological advances with fundamental understanding of both healthy and affected human neuromotor system toward improving patient care. Accomplishing dexterous manipulation through the study of human hands and by making advances in robot design and control is another area of focus for Dr. Deshpande’s group. Dr. Deshpande is a co-founder of Harmonic Bionics whose mission is to improve rehabilitation outcomes for the stroke patients. Dr. Deshpande is recipient of the NSF’s prestigious CAREER Award. </t>
   </si>
+  <si>
+    <t>Real Roboticist - Michelle Johnson - Robots that Matter</t>
+  </si>
+  <si>
+    <t>Real Roboticist - Davide Scaramuzza - Drones &amp; Magic</t>
+  </si>
+  <si>
+    <t>Real Roboticist - Dennis Hong - Making People Happy</t>
+  </si>
+  <si>
+    <t>Real Roboticist - Ruzena Bajczy - Foundations</t>
+  </si>
+  <si>
+    <t>Real Roboticist - Peter Corke - Learning</t>
+  </si>
+  <si>
+    <t>3970_WV.mp4</t>
+  </si>
+  <si>
+    <t>3971_WV.mp4</t>
+  </si>
+  <si>
+    <t>3972_WV.mp4</t>
+  </si>
+  <si>
+    <t>3973_WV.mp4</t>
+  </si>
+  <si>
+    <t>3974_WV.mp4</t>
+  </si>
+  <si>
+    <t>BiR-IROS: Black in Robotics IROS 2020</t>
+  </si>
+  <si>
+    <t>BiR-IROS Launch Event</t>
+  </si>
+  <si>
+    <t>BiR Student Event</t>
+  </si>
+  <si>
+    <t>BiR Allies Engagement Event</t>
+  </si>
+  <si>
+    <t>3975_WV.mp4</t>
+  </si>
+  <si>
+    <t>3976_WV.mp4</t>
+  </si>
+  <si>
+    <t>3977_WV.mp4</t>
+  </si>
+  <si>
+    <t>Howard, Ayanna</t>
+  </si>
+  <si>
+    <t>Georgia Institute of Technology</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +460,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -440,7 +520,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,13 +554,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -802,7 +893,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -901,7 +992,7 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="16" t="s">
         <v>51</v>
       </c>
       <c r="H3" s="5">
@@ -962,10 +1053,10 @@
       <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>74</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -989,10 +1080,10 @@
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -1016,10 +1107,10 @@
       <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>78</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -1043,10 +1134,10 @@
       <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F9" t="s">
@@ -1073,10 +1164,10 @@
       <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>82</v>
       </c>
       <c r="F10" t="s">
@@ -1103,10 +1194,10 @@
       <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>84</v>
       </c>
       <c r="F11" t="s">
@@ -1133,10 +1224,10 @@
       <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>95</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -1160,10 +1251,10 @@
       <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>86</v>
       </c>
       <c r="F13" t="s">
@@ -1175,10 +1266,10 @@
       <c r="H13" s="5">
         <v>10011</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="22"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
@@ -1192,10 +1283,10 @@
       <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -1204,11 +1295,11 @@
       <c r="H14" s="5">
         <v>10012</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
@@ -1242,7 +1333,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" s="14" customFormat="1">
+    <row r="18" spans="1:14" s="13" customFormat="1" ht="15.75">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1253,8 +1344,13 @@
         <v>55</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="F18" s="1"/>
+      <c r="G18" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="H18" s="5">
         <v>10013</v>
       </c>
@@ -1262,10 +1358,10 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" s="15"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" s="14" customFormat="1">
+    <row r="19" spans="1:14" s="13" customFormat="1" ht="15.75">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1276,8 +1372,13 @@
         <v>57</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="F19" s="1"/>
+      <c r="G19" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="H19" s="5">
         <v>10014</v>
       </c>
@@ -1285,10 +1386,10 @@
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19" s="15"/>
+      <c r="M19" s="14"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" s="14" customFormat="1">
+    <row r="20" spans="1:14" s="13" customFormat="1" ht="15.75">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1299,8 +1400,13 @@
         <v>59</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="F20" s="1"/>
+      <c r="G20" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="H20" s="5">
         <v>10015</v>
       </c>
@@ -1308,10 +1414,10 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="15"/>
+      <c r="M20" s="14"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" s="14" customFormat="1">
+    <row r="21" spans="1:14" s="13" customFormat="1" ht="15.75">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1322,8 +1428,13 @@
         <v>61</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="F21" s="1"/>
+      <c r="G21" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="H21" s="5">
         <v>10016</v>
       </c>
@@ -1331,10 +1442,10 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="15"/>
+      <c r="M21" s="14"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" s="14" customFormat="1">
+    <row r="22" spans="1:14" s="13" customFormat="1" ht="15.75">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1345,8 +1456,13 @@
         <v>63</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="F22" s="1"/>
+      <c r="G22" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="H22" s="5">
         <v>10017</v>
       </c>
@@ -1354,19 +1470,74 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="15"/>
+      <c r="M22" s="14"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="E23" s="18"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="15.75">
+      <c r="A24" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="20">
+        <v>10018</v>
+      </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" ht="15.75">
+      <c r="A25" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="20">
+        <v>10019</v>
+      </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" ht="15.75">
+      <c r="A26" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="20">
+        <v>10020</v>
+      </c>
       <c r="M26" s="1"/>
     </row>
   </sheetData>

--- a/polls/IROS20_Specials.xlsx
+++ b/polls/IROS20_Specials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FCB50C-FA0D-47C0-87FF-F93EC29AF1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329132D3-990D-4263-B31C-B4BD50EBC27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
   <si>
     <t>Genre</t>
   </si>
@@ -327,9 +327,6 @@
     <t xml:space="preserve">Harmony Exoskeleton: A Journey from Robotics Lab to Stroke Patients </t>
   </si>
   <si>
-    <t xml:space="preserve">Ashish D. Deshpande is a faculty member in the Mechanical Engineering Department at the University of Texas since 2011. Dr. Deshpande received his Ph.D. degree in Mechanical Engineering from the University of Michigan, Ann Arbor, in 2007. He then completed a post-doctoral fellowship at the University of Washington in Seattle. At The University of Texas at Austin, Dr. Deshpande directs the ReNeu Robotics Lab. His work focuses on the study of human system and design of robotic systems toward the goals accelerating recovery after a neurological injury (e.g. stroke and spinal cord injury), improving the quality of lives of those living disabilities (e.g. amputation) and enhancing lives and productivity of workers, soldiers and astronauts. Specifically, his group has designed two novel exoskeletons for delivering engaging and subject-specific training for neuro-recovery of upper-body movements after stroke and spinal cord injury. Currently his group is collaborating with top clinicians around the world to combine technological advances with fundamental understanding of both healthy and affected human neuromotor system toward improving patient care. Accomplishing dexterous manipulation through the study of human hands and by making advances in robot design and control is another area of focus for Dr. Deshpande’s group. Dr. Deshpande is a co-founder of Harmonic Bionics whose mission is to improve rehabilitation outcomes for the stroke patients. Dr. Deshpande is recipient of the NSF’s prestigious CAREER Award. </t>
-  </si>
-  <si>
     <t>Real Roboticist - Michelle Johnson - Robots that Matter</t>
   </si>
   <si>
@@ -385,13 +382,61 @@
   </si>
   <si>
     <t>Georgia Institute of Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroke is a leading cause of disability in the US and around the world, and the current rehabilitation treatments are costly, labor-intensive and insufficient, leaving millions of stroke survivors with life altering disabilities. Deshpande’s group has built a novel robot, called Harmony Exoskeleton, for upper-body rehabilitation. Fundamental design and control advanced have resulted in a number of features that make the Harmony Exoskeleton a suitable tool for delivering early-stage subject-specific treatment, for advancing the science of neuro-recovery and for assessing disability and recovery outcomes. The talk will discuss these key features and also the results from preliminary testing with stroke patients. And the progress on the commercialization path toward bringing this rehabilitation robot in the hands to therapists to treat patients will also be presented. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashish D. Deshpande is passionate about helping stroke patients recover from their disabilities and he believes robots could serve as important tools in the recovery process. He is a faculty member in Mechanical Engineering at The University of Texas at Austin, where he directs the ReNeu Robotics Lab. His work focuses on the study of human system and design of robotic systems toward the goals accelerating recovery after a neurological injury (e.g. stroke and spinal cord injury), improving the quality of lives of those living disabilities (e.g. amputation) and enhancing lives and productivity of workers, soldiers and astronauts. Specifically, his group has designed two novel exoskeletons for delivering engaging and subject-specific training for neuro-recovery of upper-body movements after stroke and spinal cord injury. Dr. Deshpande is a co-founder of Harmonic Bionics whose mission is to improve rehabilitation outcomes for the stroke patients. </t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>3980_WV.mp4</t>
+  </si>
+  <si>
+    <t>3981_WV.mp4</t>
+  </si>
+  <si>
+    <t>3982_WV.mp4</t>
+  </si>
+  <si>
+    <t>3983_WV.mp4</t>
+  </si>
+  <si>
+    <t>3984_WV.mp4</t>
+  </si>
+  <si>
+    <t>3985_WV.mp4</t>
+  </si>
+  <si>
+    <t>Supplement</t>
+  </si>
+  <si>
+    <t>Jibo Technical Overview</t>
+  </si>
+  <si>
+    <t>Jibo Growing Up</t>
+  </si>
+  <si>
+    <t>Jibo Wired Differently</t>
+  </si>
+  <si>
+    <t>Welcome to the Personal Robots Group</t>
+  </si>
+  <si>
+    <t>Indiegogo Crowd Funding Video</t>
+  </si>
+  <si>
+    <t>Jibo Succeeded by Failing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +528,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -520,7 +578,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -567,13 +625,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -890,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35065A09-DE50-40A4-9831-2C49AD8A0942}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -904,7 +972,9 @@
     <col min="5" max="5" width="34" style="8" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
     <col min="9" max="9" width="41.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75">
@@ -929,13 +999,15 @@
       <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="26" t="s">
+        <v>124</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -963,11 +1035,13 @@
       <c r="G2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="15">
         <v>10001</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -995,11 +1069,13 @@
       <c r="G3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="15">
         <v>10002</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1026,11 +1102,13 @@
       <c r="G4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="15">
         <v>10003</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1039,7 +1117,7 @@
       <c r="A5" s="5"/>
       <c r="D5" s="6"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="15"/>
       <c r="I5"/>
       <c r="M5" s="1"/>
     </row>
@@ -1062,11 +1140,14 @@
       <c r="G6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="15">
         <v>10004</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
       </c>
       <c r="M6" s="1"/>
     </row>
@@ -1089,11 +1170,14 @@
       <c r="G7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="15">
         <v>10005</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1116,11 +1200,14 @@
       <c r="G8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="15">
         <v>10006</v>
       </c>
       <c r="I8" t="s">
         <v>93</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
       </c>
       <c r="M8" s="1"/>
     </row>
@@ -1146,11 +1233,14 @@
       <c r="G9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="15">
         <v>10007</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1176,11 +1266,14 @@
       <c r="G10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="15">
         <v>10008</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1206,11 +1299,14 @@
       <c r="G11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="15">
         <v>10009</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
       </c>
       <c r="M11" s="1"/>
     </row>
@@ -1224,20 +1320,26 @@
       <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>96</v>
+      <c r="D12" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>95</v>
       </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
       <c r="G12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="15">
         <v>10010</v>
       </c>
       <c r="I12" t="s">
         <v>94</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
       </c>
       <c r="M12" s="1"/>
     </row>
@@ -1263,13 +1365,15 @@
       <c r="G13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="15">
         <v>10011</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
@@ -1292,14 +1396,16 @@
       <c r="G14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="15">
         <v>10012</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
@@ -1345,17 +1451,19 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="5">
+        <v>101</v>
+      </c>
+      <c r="H18" s="15">
         <v>10013</v>
       </c>
       <c r="I18"/>
-      <c r="J18"/>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18" s="14"/>
@@ -1373,17 +1481,19 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="5">
+        <v>102</v>
+      </c>
+      <c r="H19" s="15">
         <v>10014</v>
       </c>
       <c r="I19"/>
-      <c r="J19"/>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" s="14"/>
@@ -1401,17 +1511,19 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="5">
+        <v>103</v>
+      </c>
+      <c r="H20" s="15">
         <v>10015</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="14"/>
@@ -1429,17 +1541,19 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="5">
+        <v>104</v>
+      </c>
+      <c r="H21" s="15">
         <v>10016</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="14"/>
@@ -1457,17 +1571,19 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="5">
+        <v>105</v>
+      </c>
+      <c r="H22" s="15">
         <v>10017</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="14"/>
@@ -1478,73 +1594,198 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:14" ht="15.75">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="G24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="25">
+        <v>10018</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75">
+      <c r="A25" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G25" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="20">
-        <v>10018</v>
-      </c>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75">
-      <c r="A25" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="17" t="s">
+      <c r="H25" s="25">
+        <v>10019</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75">
+      <c r="A26" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="20">
-        <v>10019</v>
-      </c>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75">
-      <c r="A26" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="20">
+      <c r="H26" s="25">
         <v>10020</v>
       </c>
+      <c r="J26" s="8">
+        <v>0</v>
+      </c>
       <c r="M26" s="1"/>
     </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="25">
+        <v>10021</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="25">
+        <v>10022</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="25">
+        <v>10023</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="25">
+        <v>10024</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="25">
+        <v>10025</v>
+      </c>
+      <c r="J33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="25">
+        <v>10026</v>
+      </c>
+      <c r="J34" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:K14"/>
-  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/polls/IROS20_Specials.xlsx
+++ b/polls/IROS20_Specials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329132D3-990D-4263-B31C-B4BD50EBC27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B4FBA-51D8-42AA-ADCA-495B3B2D0278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
   <si>
     <t>Genre</t>
   </si>
@@ -431,12 +431,45 @@
   <si>
     <t>Jibo Succeeded by Failing</t>
   </si>
+  <si>
+    <t>Award Winners</t>
+  </si>
+  <si>
+    <t>Award Title</t>
+  </si>
+  <si>
+    <t>Best Student Paper Award</t>
+  </si>
+  <si>
+    <t>IROS Best Paper Award on Cognitive Robotics sponsored by KROS</t>
+  </si>
+  <si>
+    <t>IROS Best Paper Award on Robot Mechanisms and Design sponsored by ROBOTIS</t>
+  </si>
+  <si>
+    <t>IROS Best Entertainment and Amusement Paper Award sponsored by JTCF</t>
+  </si>
+  <si>
+    <t>IROS Best Paper Award on Safety, Security, and Rescue Robotics in memory of Motohiro Kisoi sponsored by IRSI</t>
+  </si>
+  <si>
+    <t>IROS Best Application Paper Award sponsored by ICROS</t>
+  </si>
+  <si>
+    <t>Best Paper Award</t>
+  </si>
+  <si>
+    <t>IROS Best RoboCup Paper Award sponsored by RoboCup Federation</t>
+  </si>
+  <si>
+    <t>IROS Best Paper Award on Agri-Robotics sponsored by YANMAR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +574,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -578,7 +661,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,6 +724,38 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -958,26 +1073,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35065A09-DE50-40A4-9831-2C49AD8A0942}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="34" style="8" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="8"/>
-    <col min="9" max="9" width="41.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="8"/>
+    <col min="9" max="9" width="41.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="8"/>
+    <col min="11" max="11" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" spans="1:14" ht="15.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1124,9 @@
       <c r="J1" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1439,7 +1557,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" s="13" customFormat="1" ht="15.75">
+    <row r="18" spans="1:14" s="13" customFormat="1" ht="15.6">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1469,7 +1587,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" ht="15.75">
+    <row r="19" spans="1:14" s="13" customFormat="1" ht="15.6">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1499,7 +1617,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" s="13" customFormat="1" ht="15.75">
+    <row r="20" spans="1:14" s="13" customFormat="1" ht="15.6">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1529,7 +1647,7 @@
       <c r="M20" s="14"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" s="13" customFormat="1" ht="15.75">
+    <row r="21" spans="1:14" s="13" customFormat="1" ht="15.6">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1559,7 +1677,7 @@
       <c r="M21" s="14"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" s="13" customFormat="1" ht="15.75">
+    <row r="22" spans="1:14" s="13" customFormat="1" ht="15.6">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1593,7 +1711,7 @@
       <c r="E23" s="18"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75">
+    <row r="24" spans="1:14" ht="15.6">
       <c r="A24" s="20" t="s">
         <v>106</v>
       </c>
@@ -1617,7 +1735,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75">
+    <row r="25" spans="1:14" ht="15.6">
       <c r="A25" s="20" t="s">
         <v>106</v>
       </c>
@@ -1641,7 +1759,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75">
+    <row r="26" spans="1:14" ht="15.6">
       <c r="A26" s="20" t="s">
         <v>106</v>
       </c>
@@ -1745,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:14">
       <c r="A33" s="5" t="s">
         <v>117</v>
       </c>
@@ -1765,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:14">
       <c r="A34" s="5" t="s">
         <v>117</v>
       </c>
@@ -1785,7 +1903,234 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:14">
+      <c r="H38" s="28"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="31">
+        <v>1576</v>
+      </c>
+      <c r="I39" s="29"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H40" s="31">
+        <v>1425</v>
+      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L40" s="29"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="31">
+        <v>701</v>
+      </c>
+      <c r="I41" s="31"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="L41" s="38"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="31">
+        <v>2325</v>
+      </c>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="L42" s="38"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="31">
+        <v>857</v>
+      </c>
+      <c r="I43" s="31"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="L43" s="38"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="31">
+        <v>1220</v>
+      </c>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="L44" s="38"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="29">
+        <v>2314</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="L45" s="38"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="31">
+        <v>348</v>
+      </c>
+      <c r="I46" s="31"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="38"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="31">
+        <v>1216</v>
+      </c>
+      <c r="I47" s="31"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="L47" s="38"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+    </row>
+    <row r="49" spans="8:14">
+      <c r="H49" s="29"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+    </row>
+    <row r="50" spans="8:14">
+      <c r="H50" s="29"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+    </row>
+    <row r="51" spans="8:14">
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+    </row>
+    <row r="52" spans="8:14">
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+    </row>
+    <row r="53" spans="8:14">
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="33"/>
+    </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/polls/IROS20_Specials.xlsx
+++ b/polls/IROS20_Specials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B4FBA-51D8-42AA-ADCA-495B3B2D0278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB641B8-849C-4459-BCF2-219BF5D87C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
   <si>
     <t>Genre</t>
   </si>
@@ -463,6 +463,18 @@
   </si>
   <si>
     <t>IROS Best Paper Award on Agri-Robotics sponsored by YANMAR</t>
+  </si>
+  <si>
+    <t>Radhika Nagpal</t>
+  </si>
+  <si>
+    <t>Harvard University</t>
+  </si>
+  <si>
+    <t>Real Roboticist - Radhika Nagpal</t>
+  </si>
+  <si>
+    <t>3986_WV.mp4</t>
   </si>
 </sst>
 </file>
@@ -1073,27 +1085,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35065A09-DE50-40A4-9831-2C49AD8A0942}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="34" style="8" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="8"/>
-    <col min="9" max="9" width="41.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="8"/>
-    <col min="11" max="11" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
+    <col min="9" max="9" width="41.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1569,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" s="13" customFormat="1" ht="15.6">
+    <row r="18" spans="1:14" s="13" customFormat="1" ht="15.75">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1587,7 +1599,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" ht="15.6">
+    <row r="19" spans="1:14" s="13" customFormat="1" ht="15.75">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1617,7 +1629,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" s="13" customFormat="1" ht="15.6">
+    <row r="20" spans="1:14" s="13" customFormat="1" ht="15.75">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1647,7 +1659,7 @@
       <c r="M20" s="14"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" s="13" customFormat="1" ht="15.6">
+    <row r="21" spans="1:14" s="13" customFormat="1" ht="15.75">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1677,7 +1689,7 @@
       <c r="M21" s="14"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" s="13" customFormat="1" ht="15.6">
+    <row r="22" spans="1:14" s="13" customFormat="1" ht="15.75">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1707,35 +1719,38 @@
       <c r="M22" s="14"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14">
-      <c r="E23" s="18"/>
+    <row r="23" spans="1:14" ht="15.75">
+      <c r="A23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="8">
+        <v>10027</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="15.6">
-      <c r="A24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="25">
-        <v>10018</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
+    <row r="24" spans="1:14" s="21" customFormat="1">
+      <c r="E24" s="18"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="15.6">
+    <row r="25" spans="1:14" ht="15.75">
       <c r="A25" s="20" t="s">
         <v>106</v>
       </c>
@@ -1746,20 +1761,20 @@
         <v>114</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H25" s="25">
-        <v>10019</v>
+        <v>10018</v>
       </c>
       <c r="J25" s="8">
         <v>0</v>
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="15.6">
+    <row r="26" spans="1:14" ht="15.75">
       <c r="A26" s="20" t="s">
         <v>106</v>
       </c>
@@ -1770,38 +1785,42 @@
         <v>114</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H26" s="25">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="J26" s="8">
         <v>0</v>
       </c>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" s="25">
-        <v>10021</v>
-      </c>
-      <c r="J29" s="8">
-        <v>1</v>
-      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75">
+      <c r="A27" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="25">
+        <v>10020</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="5" t="s">
@@ -1811,13 +1830,13 @@
         <v>27</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H30" s="25">
-        <v>10022</v>
+        <v>10021</v>
       </c>
       <c r="J30" s="8">
         <v>1</v>
@@ -1831,13 +1850,13 @@
         <v>27</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31" s="25">
-        <v>10023</v>
+        <v>10022</v>
       </c>
       <c r="J31" s="8">
         <v>1</v>
@@ -1851,13 +1870,13 @@
         <v>27</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H32" s="25">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="J32" s="8">
         <v>1</v>
@@ -1871,13 +1890,13 @@
         <v>27</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H33" s="25">
-        <v>10025</v>
+        <v>10024</v>
       </c>
       <c r="J33" s="8">
         <v>1</v>
@@ -1891,54 +1910,58 @@
         <v>27</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H34" s="25">
-        <v>10026</v>
+        <v>10025</v>
       </c>
       <c r="J34" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
-      <c r="H38" s="28"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
+    <row r="35" spans="1:14">
+      <c r="A35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="25">
+        <v>10026</v>
+      </c>
+      <c r="J35" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" t="s">
-        <v>131</v>
-      </c>
-      <c r="H39" s="31">
-        <v>1576</v>
-      </c>
+      <c r="H39" s="28"/>
       <c r="I39" s="29"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="L39" s="29"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
       <c r="M39" s="31"/>
       <c r="N39" s="31"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="21" t="s">
+      <c r="A40" t="s">
         <v>131</v>
       </c>
       <c r="H40" s="31">
-        <v>1425</v>
+        <v>1576</v>
       </c>
       <c r="I40" s="29"/>
       <c r="J40" s="32"/>
       <c r="K40" s="34" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L40" s="29"/>
       <c r="M40" s="31"/>
@@ -1949,28 +1972,28 @@
         <v>131</v>
       </c>
       <c r="H41" s="31">
-        <v>701</v>
-      </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="L41" s="38"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
+        <v>1425</v>
+      </c>
+      <c r="I41" s="29"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" s="29"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="21" t="s">
         <v>131</v>
       </c>
       <c r="H42" s="31">
-        <v>2325</v>
+        <v>701</v>
       </c>
       <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="J42" s="30"/>
       <c r="K42" s="35" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L42" s="38"/>
       <c r="M42" s="37"/>
@@ -1981,12 +2004,12 @@
         <v>131</v>
       </c>
       <c r="H43" s="31">
-        <v>857</v>
+        <v>2325</v>
       </c>
       <c r="I43" s="31"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="36" t="s">
-        <v>135</v>
+      <c r="J43" s="32"/>
+      <c r="K43" s="35" t="s">
+        <v>140</v>
       </c>
       <c r="L43" s="38"/>
       <c r="M43" s="37"/>
@@ -1997,12 +2020,12 @@
         <v>131</v>
       </c>
       <c r="H44" s="31">
-        <v>1220</v>
+        <v>857</v>
       </c>
       <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="J44" s="30"/>
       <c r="K44" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L44" s="38"/>
       <c r="M44" s="37"/>
@@ -2012,13 +2035,13 @@
       <c r="A45" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="29">
-        <v>2314</v>
+      <c r="H45" s="31">
+        <v>1220</v>
       </c>
       <c r="I45" s="31"/>
-      <c r="J45" s="30"/>
+      <c r="J45" s="32"/>
       <c r="K45" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L45" s="38"/>
       <c r="M45" s="37"/>
@@ -2028,13 +2051,13 @@
       <c r="A46" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="31">
-        <v>348</v>
+      <c r="H46" s="29">
+        <v>2314</v>
       </c>
       <c r="I46" s="31"/>
-      <c r="J46" s="32"/>
+      <c r="J46" s="30"/>
       <c r="K46" s="36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L46" s="38"/>
       <c r="M46" s="37"/>
@@ -2045,57 +2068,64 @@
         <v>131</v>
       </c>
       <c r="H47" s="31">
-        <v>1216</v>
+        <v>348</v>
       </c>
       <c r="I47" s="31"/>
-      <c r="J47" s="30"/>
+      <c r="J47" s="32"/>
       <c r="K47" s="36" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L47" s="38"/>
       <c r="M47" s="37"/>
       <c r="N47" s="37"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="H48" s="31"/>
+      <c r="A48" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="31">
+        <v>1216</v>
+      </c>
       <c r="I48" s="31"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="33"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="36" t="s">
+        <v>138</v>
+      </c>
       <c r="L48" s="38"/>
       <c r="M48" s="37"/>
       <c r="N48" s="37"/>
     </row>
     <row r="49" spans="8:14">
-      <c r="H49" s="29"/>
+      <c r="H49" s="31"/>
       <c r="I49" s="31"/>
-      <c r="J49" s="30"/>
+      <c r="J49" s="32"/>
       <c r="K49" s="33"/>
       <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
     </row>
     <row r="50" spans="8:14">
       <c r="H50" s="29"/>
       <c r="I50" s="31"/>
-      <c r="J50" s="32"/>
+      <c r="J50" s="30"/>
       <c r="K50" s="33"/>
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
       <c r="N50" s="38"/>
     </row>
     <row r="51" spans="8:14">
-      <c r="H51" s="31"/>
+      <c r="H51" s="29"/>
       <c r="I51" s="31"/>
-      <c r="J51" s="30"/>
+      <c r="J51" s="32"/>
       <c r="K51" s="33"/>
       <c r="L51" s="38"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
     </row>
     <row r="52" spans="8:14">
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
+      <c r="J52" s="30"/>
       <c r="K52" s="33"/>
       <c r="L52" s="38"/>
       <c r="M52" s="37"/>
@@ -2106,30 +2136,39 @@
       <c r="I53" s="31"/>
       <c r="J53" s="32"/>
       <c r="K53" s="33"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="33"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+    </row>
+    <row r="54" spans="8:14">
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N48:N49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/polls/IROS20_Specials.xlsx
+++ b/polls/IROS20_Specials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB641B8-849C-4459-BCF2-219BF5D87C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A532BCA8-9092-4BCA-BE03-00EEA7926687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,15 +360,6 @@
     <t>BiR-IROS: Black in Robotics IROS 2020</t>
   </si>
   <si>
-    <t>BiR-IROS Launch Event</t>
-  </si>
-  <si>
-    <t>BiR Student Event</t>
-  </si>
-  <si>
-    <t>BiR Allies Engagement Event</t>
-  </si>
-  <si>
     <t>3975_WV.mp4</t>
   </si>
   <si>
@@ -475,6 +466,15 @@
   </si>
   <si>
     <t>3986_WV.mp4</t>
+  </si>
+  <si>
+    <t>Diversity Matters</t>
+  </si>
+  <si>
+    <t>I Love Robotics</t>
+  </si>
+  <si>
+    <t>Research Highlights</t>
   </si>
 </sst>
 </file>
@@ -763,10 +763,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1451,13 +1451,13 @@
         <v>47</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>70</v>
@@ -1724,16 +1724,16 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>142</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>145</v>
       </c>
       <c r="H23" s="8">
         <v>10027</v>
@@ -1755,16 +1755,16 @@
         <v>106</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E25" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="H25" s="25">
         <v>10018</v>
@@ -1779,16 +1779,16 @@
         <v>106</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E26" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="H26" s="25">
         <v>10019</v>
@@ -1803,16 +1803,16 @@
         <v>106</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E27" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="H27" s="25">
         <v>10020</v>
@@ -1824,16 +1824,16 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H30" s="25">
         <v>10021</v>
@@ -1844,16 +1844,16 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H31" s="25">
         <v>10022</v>
@@ -1864,16 +1864,16 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H32" s="25">
         <v>10023</v>
@@ -1884,16 +1884,16 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H33" s="25">
         <v>10024</v>
@@ -1904,16 +1904,16 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H34" s="25">
         <v>10025</v>
@@ -1924,16 +1924,16 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H35" s="25">
         <v>10026</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H40" s="31">
         <v>1576</v>
@@ -1961,7 +1961,7 @@
       <c r="I40" s="29"/>
       <c r="J40" s="32"/>
       <c r="K40" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L40" s="29"/>
       <c r="M40" s="31"/>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H41" s="31">
         <v>1425</v>
@@ -1977,7 +1977,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="32"/>
       <c r="K41" s="34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L41" s="29"/>
       <c r="M41" s="31"/>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H42" s="31">
         <v>701</v>
@@ -1993,15 +1993,15 @@
       <c r="I42" s="31"/>
       <c r="J42" s="30"/>
       <c r="K42" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="L42" s="38"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
+        <v>131</v>
+      </c>
+      <c r="L42" s="37"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H43" s="31">
         <v>2325</v>
@@ -2009,15 +2009,15 @@
       <c r="I43" s="31"/>
       <c r="J43" s="32"/>
       <c r="K43" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="L43" s="38"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
+        <v>137</v>
+      </c>
+      <c r="L43" s="37"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H44" s="31">
         <v>857</v>
@@ -2025,15 +2025,15 @@
       <c r="I44" s="31"/>
       <c r="J44" s="30"/>
       <c r="K44" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="L44" s="38"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
+        <v>132</v>
+      </c>
+      <c r="L44" s="37"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H45" s="31">
         <v>1220</v>
@@ -2041,15 +2041,15 @@
       <c r="I45" s="31"/>
       <c r="J45" s="32"/>
       <c r="K45" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="L45" s="38"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
+        <v>133</v>
+      </c>
+      <c r="L45" s="37"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H46" s="29">
         <v>2314</v>
@@ -2057,15 +2057,15 @@
       <c r="I46" s="31"/>
       <c r="J46" s="30"/>
       <c r="K46" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="L46" s="38"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
+        <v>134</v>
+      </c>
+      <c r="L46" s="37"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H47" s="31">
         <v>348</v>
@@ -2073,15 +2073,15 @@
       <c r="I47" s="31"/>
       <c r="J47" s="32"/>
       <c r="K47" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="L47" s="38"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
+        <v>138</v>
+      </c>
+      <c r="L47" s="37"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H48" s="31">
         <v>1216</v>
@@ -2089,56 +2089,56 @@
       <c r="I48" s="31"/>
       <c r="J48" s="30"/>
       <c r="K48" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="L48" s="38"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
+        <v>135</v>
+      </c>
+      <c r="L48" s="37"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
     </row>
     <row r="49" spans="8:14">
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
       <c r="J49" s="32"/>
       <c r="K49" s="33"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
     </row>
     <row r="50" spans="8:14">
       <c r="H50" s="29"/>
       <c r="I50" s="31"/>
       <c r="J50" s="30"/>
       <c r="K50" s="33"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
     </row>
     <row r="51" spans="8:14">
       <c r="H51" s="29"/>
       <c r="I51" s="31"/>
       <c r="J51" s="32"/>
       <c r="K51" s="33"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
     </row>
     <row r="52" spans="8:14">
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
       <c r="J52" s="30"/>
       <c r="K52" s="33"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
     </row>
     <row r="53" spans="8:14">
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
       <c r="J53" s="32"/>
       <c r="K53" s="33"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
     </row>
     <row r="54" spans="8:14">
       <c r="H54" s="31"/>
@@ -2151,12 +2151,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
     <mergeCell ref="N42:N43"/>
     <mergeCell ref="N44:N45"/>
     <mergeCell ref="N46:N47"/>
@@ -2169,6 +2163,12 @@
     <mergeCell ref="L42:L43"/>
     <mergeCell ref="M42:M43"/>
     <mergeCell ref="N48:N49"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
